--- a/Tests/Validation/Wheat/GxExM/LAI.xlsx
+++ b/Tests/Validation/Wheat/GxExM/LAI.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://csiroau-my.sharepoint.com/personal/hut104_csiro_au/Documents/Work/GRDC WheatYieldPhysiology/Simulations/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHubRepos\ApsimX\Tests\Validation\Wheat\GxExM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="108" documentId="13_ncr:1_{91926DCE-977E-4E5B-A859-BF79AAEB6891}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A2FB23F1-7EE1-440E-85A1-82140068EC85}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{706E4934-8C9B-42F4-A799-10409A85CECD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13875" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -3253,13 +3253,13 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.265625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.19921875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
         <v>27</v>
       </c>
@@ -3267,27 +3267,27 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="12" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="12" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="12" t="s">
         <v>58</v>
       </c>
@@ -3301,59 +3301,59 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+    <sheetView tabSelected="1" topLeftCell="C169" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J181" sqref="J181:L181"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.53125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="47.1328125" customWidth="1"/>
-    <col min="2" max="2" width="18.1328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.46484375" customWidth="1"/>
-    <col min="4" max="4" width="16.86328125" customWidth="1"/>
-    <col min="5" max="5" width="24.46484375" customWidth="1"/>
-    <col min="6" max="6" width="10.53125" customWidth="1"/>
-    <col min="7" max="7" width="11.53125" customWidth="1"/>
-    <col min="8" max="8" width="7.46484375" customWidth="1"/>
+    <col min="1" max="1" width="47.140625" customWidth="1"/>
+    <col min="2" max="2" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.42578125" customWidth="1"/>
+    <col min="4" max="4" width="16.85546875" customWidth="1"/>
+    <col min="5" max="5" width="24.42578125" customWidth="1"/>
+    <col min="6" max="6" width="10.5703125" customWidth="1"/>
+    <col min="7" max="7" width="11.5703125" customWidth="1"/>
+    <col min="8" max="8" width="7.42578125" customWidth="1"/>
     <col min="9" max="9" width="21" customWidth="1"/>
-    <col min="10" max="10" width="22.33203125" customWidth="1"/>
-    <col min="11" max="11" width="12.6640625" customWidth="1"/>
-    <col min="12" max="12" width="18.46484375" customWidth="1"/>
-    <col min="13" max="13" width="18.53125" customWidth="1"/>
-    <col min="14" max="14" width="31.1328125" customWidth="1"/>
-    <col min="15" max="16" width="20.53125" customWidth="1"/>
-    <col min="17" max="17" width="21.6640625" customWidth="1"/>
-    <col min="18" max="18" width="17.6640625" customWidth="1"/>
-    <col min="19" max="19" width="18.6640625" customWidth="1"/>
-    <col min="20" max="20" width="24.1328125" customWidth="1"/>
-    <col min="21" max="21" width="28.33203125" customWidth="1"/>
-    <col min="22" max="22" width="19.86328125" customWidth="1"/>
-    <col min="23" max="23" width="20.6640625" customWidth="1"/>
-    <col min="24" max="24" width="26.1328125" customWidth="1"/>
-    <col min="25" max="25" width="23.53125" customWidth="1"/>
-    <col min="26" max="27" width="17.6640625" customWidth="1"/>
-    <col min="28" max="28" width="21.86328125" customWidth="1"/>
-    <col min="29" max="29" width="27.06640625" bestFit="1" customWidth="1"/>
-    <col min="30" max="31" width="33.33203125" customWidth="1"/>
-    <col min="32" max="33" width="32.86328125" customWidth="1"/>
-    <col min="34" max="34" width="34.33203125" customWidth="1"/>
-    <col min="35" max="35" width="40.46484375" customWidth="1"/>
-    <col min="36" max="36" width="27.53125" customWidth="1"/>
-    <col min="37" max="37" width="16.46484375" customWidth="1"/>
-    <col min="38" max="39" width="13.6640625" customWidth="1"/>
-    <col min="40" max="41" width="14.6640625" customWidth="1"/>
-    <col min="42" max="42" width="17.53125" customWidth="1"/>
-    <col min="43" max="44" width="13.46484375" customWidth="1"/>
-    <col min="45" max="45" width="14.53125" customWidth="1"/>
-    <col min="46" max="46" width="28.86328125" customWidth="1"/>
-    <col min="47" max="47" width="30.46484375" customWidth="1"/>
+    <col min="10" max="10" width="22.28515625" customWidth="1"/>
+    <col min="11" max="11" width="12.7109375" customWidth="1"/>
+    <col min="12" max="12" width="18.42578125" customWidth="1"/>
+    <col min="13" max="13" width="18.5703125" customWidth="1"/>
+    <col min="14" max="14" width="31.140625" customWidth="1"/>
+    <col min="15" max="16" width="20.5703125" customWidth="1"/>
+    <col min="17" max="17" width="21.7109375" customWidth="1"/>
+    <col min="18" max="18" width="17.7109375" customWidth="1"/>
+    <col min="19" max="19" width="18.7109375" customWidth="1"/>
+    <col min="20" max="20" width="24.140625" customWidth="1"/>
+    <col min="21" max="21" width="28.28515625" customWidth="1"/>
+    <col min="22" max="22" width="19.85546875" customWidth="1"/>
+    <col min="23" max="23" width="20.7109375" customWidth="1"/>
+    <col min="24" max="24" width="26.140625" customWidth="1"/>
+    <col min="25" max="25" width="23.5703125" customWidth="1"/>
+    <col min="26" max="27" width="17.7109375" customWidth="1"/>
+    <col min="28" max="28" width="21.85546875" customWidth="1"/>
+    <col min="29" max="29" width="27" bestFit="1" customWidth="1"/>
+    <col min="30" max="31" width="33.28515625" customWidth="1"/>
+    <col min="32" max="33" width="32.85546875" customWidth="1"/>
+    <col min="34" max="34" width="34.28515625" customWidth="1"/>
+    <col min="35" max="35" width="40.42578125" customWidth="1"/>
+    <col min="36" max="36" width="27.5703125" customWidth="1"/>
+    <col min="37" max="37" width="16.42578125" customWidth="1"/>
+    <col min="38" max="39" width="13.7109375" customWidth="1"/>
+    <col min="40" max="41" width="14.7109375" customWidth="1"/>
+    <col min="42" max="42" width="17.5703125" customWidth="1"/>
+    <col min="43" max="44" width="13.42578125" customWidth="1"/>
+    <col min="45" max="45" width="14.5703125" customWidth="1"/>
+    <col min="46" max="46" width="28.85546875" customWidth="1"/>
+    <col min="47" max="47" width="30.42578125" customWidth="1"/>
     <col min="48" max="56" width="26" customWidth="1"/>
     <col min="57" max="65" width="27" customWidth="1"/>
-    <col min="66" max="66" width="24.53125" bestFit="1" customWidth="1"/>
-    <col min="67" max="67" width="29.6640625" customWidth="1"/>
+    <col min="66" max="66" width="24.5703125" bestFit="1" customWidth="1"/>
+    <col min="67" max="67" width="29.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3388,7 +3388,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>15</v>
       </c>
@@ -3415,13 +3415,13 @@
         <v>0.28650423453463131</v>
       </c>
       <c r="J2">
-        <v>27742.118474284911</v>
+        <v>2.774211847428491E-2</v>
       </c>
       <c r="K2">
-        <v>438.09168353233855</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.45">
+        <v>4.3809168353233858E-4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>15</v>
       </c>
@@ -3448,13 +3448,13 @@
         <v>0.49831217326887833</v>
       </c>
       <c r="J3">
-        <v>24487.338674813407</v>
+        <v>2.4487338674813407E-2</v>
       </c>
       <c r="K3">
-        <v>1392.0897819142849</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.45">
+        <v>1.3920897819142848E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>15</v>
       </c>
@@ -3481,13 +3481,13 @@
         <v>0.63016412578608161</v>
       </c>
       <c r="J4">
-        <v>25397.375033977689</v>
+        <v>2.5397375033977689E-2</v>
       </c>
       <c r="K4">
-        <v>2001.0572316119776</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.45">
+        <v>2.0010572316119775E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -3514,13 +3514,13 @@
         <v>0.81826666686339966</v>
       </c>
       <c r="J5">
-        <v>18189.331238407522</v>
+        <v>1.8189331238407522E-2</v>
       </c>
       <c r="K5">
-        <v>3552.1927116759416</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.45">
+        <v>3.5521927116759417E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>15</v>
       </c>
@@ -3541,7 +3541,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>16</v>
       </c>
@@ -3568,13 +3568,13 @@
         <v>0.2724168233741221</v>
       </c>
       <c r="J7">
-        <v>24693.2191367458</v>
+        <v>2.4693219136745801E-2</v>
       </c>
       <c r="K7">
-        <v>947.08705513065263</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.45">
+        <v>9.4708705513065264E-4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>16</v>
       </c>
@@ -3601,13 +3601,13 @@
         <v>0.92313584133393234</v>
       </c>
       <c r="J8">
-        <v>21841.114128497891</v>
+        <v>2.1841114128497891E-2</v>
       </c>
       <c r="K8">
-        <v>2150.8342482162011</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.45">
+        <v>2.150834248216201E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>16</v>
       </c>
@@ -3634,13 +3634,13 @@
         <v>0.65054585144543342</v>
       </c>
       <c r="J9">
-        <v>22390.337422372635</v>
+        <v>2.2390337422372637E-2</v>
       </c>
       <c r="K9">
-        <v>1980.9703228258993</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.45">
+        <v>1.9809703228258991E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>16</v>
       </c>
@@ -3667,13 +3667,13 @@
         <v>0.55424675813003776</v>
       </c>
       <c r="J10">
-        <v>17589.167293725055</v>
+        <v>1.7589167293725054E-2</v>
       </c>
       <c r="K10">
-        <v>2547.6584395643376</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.45">
+        <v>2.5476584395643376E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>16</v>
       </c>
@@ -3694,7 +3694,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>17</v>
       </c>
@@ -3721,13 +3721,13 @@
         <v>0.22931731338605277</v>
       </c>
       <c r="J12">
-        <v>23564.386291020885</v>
+        <v>2.3564386291020884E-2</v>
       </c>
       <c r="K12">
-        <v>659.34579316476891</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.45">
+        <v>6.5934579316476887E-4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>17</v>
       </c>
@@ -3754,13 +3754,13 @@
         <v>0.22972353553284203</v>
       </c>
       <c r="J13">
-        <v>22137.431745123471</v>
+        <v>2.2137431745123472E-2</v>
       </c>
       <c r="K13">
-        <v>1266.4040784467888</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.45">
+        <v>1.2664040784467888E-3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>17</v>
       </c>
@@ -3787,13 +3787,13 @@
         <v>0.88866925421728982</v>
       </c>
       <c r="J14">
-        <v>17524.552626348515</v>
+        <v>1.7524552626348517E-2</v>
       </c>
       <c r="K14">
-        <v>3870.140114790333</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.45">
+        <v>3.8701401147903328E-3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>17</v>
       </c>
@@ -3820,13 +3820,13 @@
         <v>0.31431100660942229</v>
       </c>
       <c r="J15">
-        <v>12113.603350669537</v>
+        <v>1.2113603350669537E-2</v>
       </c>
       <c r="K15">
-        <v>1127.7179338441483</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.45">
+        <v>1.1277179338441484E-3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>17</v>
       </c>
@@ -3847,7 +3847,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>18</v>
       </c>
@@ -3874,13 +3874,13 @@
         <v>0.69449839136283886</v>
       </c>
       <c r="J17">
-        <v>22671.342523690677</v>
+        <v>2.2671342523690678E-2</v>
       </c>
       <c r="K17">
-        <v>4258.3943613064912</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.45">
+        <v>4.2583943613064912E-3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>18</v>
       </c>
@@ -3907,13 +3907,13 @@
         <v>0.49160023662450431</v>
       </c>
       <c r="J18">
-        <v>23520.237902338256</v>
+        <v>2.3520237902338256E-2</v>
       </c>
       <c r="K18">
-        <v>1223.5952625706159</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.45">
+        <v>1.2235952625706159E-3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>18</v>
       </c>
@@ -3940,13 +3940,13 @@
         <v>0.4603846240114311</v>
       </c>
       <c r="J19">
-        <v>22993.167513533273</v>
+        <v>2.2993167513533273E-2</v>
       </c>
       <c r="K19">
-        <v>784.83098897390073</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.45">
+        <v>7.8483098897390074E-4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>18</v>
       </c>
@@ -3973,13 +3973,13 @@
         <v>0.61808250310325241</v>
       </c>
       <c r="J20">
-        <v>19939.295248689024</v>
+        <v>1.9939295248689023E-2</v>
       </c>
       <c r="K20">
-        <v>945.4679031857487</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.45">
+        <v>9.454679031857487E-4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>18</v>
       </c>
@@ -4000,7 +4000,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>19</v>
       </c>
@@ -4027,13 +4027,13 @@
         <v>0.43052744128884418</v>
       </c>
       <c r="J22">
-        <v>27994.463520878406</v>
+        <v>2.7994463520878407E-2</v>
       </c>
       <c r="K22">
-        <v>918.0816400932232</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.45">
+        <v>9.1808164009322317E-4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>19</v>
       </c>
@@ -4060,13 +4060,13 @@
         <v>0.94137336804116778</v>
       </c>
       <c r="J23">
-        <v>24866.027581134327</v>
+        <v>2.4866027581134327E-2</v>
       </c>
       <c r="K23">
-        <v>2689.2346027813605</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.45">
+        <v>2.6892346027813604E-3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>19</v>
       </c>
@@ -4093,13 +4093,13 @@
         <v>0.35572207782756238</v>
       </c>
       <c r="J24">
-        <v>24805.834738368365</v>
+        <v>2.4805834738368365E-2</v>
       </c>
       <c r="K24">
-        <v>1432.5988128151928</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.45">
+        <v>1.4325988128151927E-3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>19</v>
       </c>
@@ -4126,13 +4126,13 @@
         <v>0.51095707214833941</v>
       </c>
       <c r="J25">
-        <v>13729.445376695374</v>
+        <v>1.3729445376695374E-2</v>
       </c>
       <c r="K25">
-        <v>2167.6757720192654</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.45">
+        <v>2.1676757720192653E-3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>19</v>
       </c>
@@ -4153,7 +4153,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>20</v>
       </c>
@@ -4180,13 +4180,13 @@
         <v>0.36499933993357564</v>
       </c>
       <c r="J27">
-        <v>26151.665596205377</v>
+        <v>2.6151665596205378E-2</v>
       </c>
       <c r="K27">
-        <v>498.867012373374</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.45">
+        <v>4.9886701237337398E-4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>20</v>
       </c>
@@ -4213,13 +4213,13 @@
         <v>1.7062979042587774</v>
       </c>
       <c r="J28">
-        <v>19783.58533876935</v>
+        <v>1.9783585338769349E-2</v>
       </c>
       <c r="K28">
-        <v>3511.008747762</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.45">
+        <v>3.5110087477619998E-3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>20</v>
       </c>
@@ -4246,13 +4246,13 @@
         <v>0.60195538020325123</v>
       </c>
       <c r="J29">
-        <v>21336.767010778331</v>
+        <v>2.1336767010778329E-2</v>
       </c>
       <c r="K29">
-        <v>2686.5102718777562</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.45">
+        <v>2.686510271877756E-3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>20</v>
       </c>
@@ -4279,13 +4279,13 @@
         <v>0.82248879193761759</v>
       </c>
       <c r="J30">
-        <v>13233.848394830104</v>
+        <v>1.3233848394830104E-2</v>
       </c>
       <c r="K30">
-        <v>2927.6390429114999</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.45">
+        <v>2.9276390429115E-3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>20</v>
       </c>
@@ -4306,7 +4306,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>21</v>
       </c>
@@ -4333,13 +4333,13 @@
         <v>0.34329660154449809</v>
       </c>
       <c r="J32">
-        <v>26399.507068736995</v>
+        <v>2.6399507068736994E-2</v>
       </c>
       <c r="K32">
-        <v>714.16873696767891</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.45">
+        <v>7.1416873696767888E-4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>21</v>
       </c>
@@ -4366,13 +4366,13 @@
         <v>0.89747530968056211</v>
       </c>
       <c r="J33">
-        <v>23492.006210895743</v>
+        <v>2.3492006210895741E-2</v>
       </c>
       <c r="K33">
-        <v>2658.1397152138566</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.45">
+        <v>2.6581397152138564E-3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>21</v>
       </c>
@@ -4399,13 +4399,13 @@
         <v>0.67010484157012906</v>
       </c>
       <c r="J34">
-        <v>22112.468157232674</v>
+        <v>2.2112468157232675E-2</v>
       </c>
       <c r="K34">
-        <v>2724.7615853356406</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.45">
+        <v>2.7247615853356407E-3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>21</v>
       </c>
@@ -4432,13 +4432,13 @@
         <v>0.1825508471656597</v>
       </c>
       <c r="J35">
-        <v>20762.102308220892</v>
+        <v>2.0762102308220891E-2</v>
       </c>
       <c r="K35">
-        <v>2136.3581683522334</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.45">
+        <v>2.1363581683522333E-3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>21</v>
       </c>
@@ -4459,7 +4459,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>22</v>
       </c>
@@ -4486,13 +4486,13 @@
         <v>0.22583693730006763</v>
       </c>
       <c r="J37">
-        <v>25641.527831226442</v>
+        <v>2.5641527831226443E-2</v>
       </c>
       <c r="K37">
-        <v>841.91284029840403</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.45">
+        <v>8.4191284029840399E-4</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>22</v>
       </c>
@@ -4519,13 +4519,13 @@
         <v>0.13326515671614647</v>
       </c>
       <c r="J38">
-        <v>23103.37401903305</v>
+        <v>2.3103374019033049E-2</v>
       </c>
       <c r="K38">
-        <v>3351.0348734799109</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.45">
+        <v>3.3510348734799109E-3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>22</v>
       </c>
@@ -4552,13 +4552,13 @@
         <v>0.5303817928204333</v>
       </c>
       <c r="J39">
-        <v>24036.281457460238</v>
+        <v>2.4036281457460239E-2</v>
       </c>
       <c r="K39">
-        <v>2692.3941393020427</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.45">
+        <v>2.6923941393020429E-3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>22</v>
       </c>
@@ -4585,13 +4585,13 @@
         <v>0.40099250712251971</v>
       </c>
       <c r="J40">
-        <v>18865.433235581622</v>
+        <v>1.8865433235581621E-2</v>
       </c>
       <c r="K40">
-        <v>1468.7607337372497</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.45">
+        <v>1.4687607337372497E-3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>22</v>
       </c>
@@ -4612,7 +4612,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>23</v>
       </c>
@@ -4639,13 +4639,13 @@
         <v>0.58763454077520605</v>
       </c>
       <c r="J42">
-        <v>23823.713952232451</v>
+        <v>2.3823713952232449E-2</v>
       </c>
       <c r="K42">
-        <v>1283.8676223727375</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.45">
+        <v>1.2838676223727375E-3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>23</v>
       </c>
@@ -4672,13 +4672,13 @@
         <v>0.57801509088899827</v>
       </c>
       <c r="J43">
-        <v>23549.02350725016</v>
+        <v>2.3549023507250161E-2</v>
       </c>
       <c r="K43">
-        <v>1712.1197457035289</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.45">
+        <v>1.7121197457035289E-3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>23</v>
       </c>
@@ -4705,13 +4705,13 @@
         <v>0.72772901864075579</v>
       </c>
       <c r="J44">
-        <v>23423.987344644604</v>
+        <v>2.3423987344644605E-2</v>
       </c>
       <c r="K44">
-        <v>3991.8428730533656</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.45">
+        <v>3.9918428730533655E-3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>23</v>
       </c>
@@ -4738,13 +4738,13 @@
         <v>0.29680468986497383</v>
       </c>
       <c r="J45">
-        <v>16838.897676943587</v>
+        <v>1.6838897676943586E-2</v>
       </c>
       <c r="K45">
-        <v>1588.0787896253134</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.45">
+        <v>1.5880787896253134E-3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>23</v>
       </c>
@@ -4765,7 +4765,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>24</v>
       </c>
@@ -4792,13 +4792,13 @@
         <v>0.43634746414528564</v>
       </c>
       <c r="J47">
-        <v>24381.246661112637</v>
+        <v>2.4381246661112636E-2</v>
       </c>
       <c r="K47">
-        <v>1682.0933022024697</v>
-      </c>
-    </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.45">
+        <v>1.6820933022024696E-3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>24</v>
       </c>
@@ -4819,7 +4819,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>24</v>
       </c>
@@ -4846,13 +4846,13 @@
         <v>0.65183169077726943</v>
       </c>
       <c r="J49">
-        <v>23120.44001575571</v>
+        <v>2.3120440015755712E-2</v>
       </c>
       <c r="K49">
-        <v>2763.2174593249802</v>
-      </c>
-    </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.45">
+        <v>2.7632174593249801E-3</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>24</v>
       </c>
@@ -4879,13 +4879,13 @@
         <v>0.44230543191921246</v>
       </c>
       <c r="J50">
-        <v>16256.018405867633</v>
+        <v>1.6256018405867632E-2</v>
       </c>
       <c r="K50">
-        <v>1634.046912700157</v>
-      </c>
-    </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.45">
+        <v>1.6340469127001571E-3</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>24</v>
       </c>
@@ -4906,7 +4906,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>25</v>
       </c>
@@ -4933,13 +4933,13 @@
         <v>1.0441861748610748</v>
       </c>
       <c r="J52">
-        <v>18421.736094067983</v>
+        <v>1.8421736094067984E-2</v>
       </c>
       <c r="K52">
-        <v>11893.890017915235</v>
-      </c>
-    </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.45">
+        <v>1.1893890017915236E-2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>25</v>
       </c>
@@ -4960,7 +4960,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>25</v>
       </c>
@@ -4987,13 +4987,13 @@
         <v>0.19940750121596934</v>
       </c>
       <c r="J54">
-        <v>21367.777855025695</v>
+        <v>2.1367777855025694E-2</v>
       </c>
       <c r="K54">
-        <v>959.12028558835959</v>
-      </c>
-    </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.45">
+        <v>9.5912028558835954E-4</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>25</v>
       </c>
@@ -5020,13 +5020,13 @@
         <v>0.23273968362162084</v>
       </c>
       <c r="J55">
-        <v>16334.886061105477</v>
+        <v>1.6334886061105478E-2</v>
       </c>
       <c r="K55">
-        <v>1001.565379210612</v>
-      </c>
-    </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.45">
+        <v>1.001565379210612E-3</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>25</v>
       </c>
@@ -5047,7 +5047,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>26</v>
       </c>
@@ -5074,13 +5074,13 @@
         <v>0.11592594896335551</v>
       </c>
       <c r="J57">
-        <v>24434.792295254458</v>
+        <v>2.4434792295254457E-2</v>
       </c>
       <c r="K57">
-        <v>757.5674887650971</v>
-      </c>
-    </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.45">
+        <v>7.5756748876509709E-4</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>26</v>
       </c>
@@ -5107,13 +5107,13 @@
         <v>0.39279800661497266</v>
       </c>
       <c r="J58">
-        <v>19651.854867323807</v>
+        <v>1.9651854867323806E-2</v>
       </c>
       <c r="K58">
-        <v>1387.3763214845644</v>
-      </c>
-    </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.45">
+        <v>1.3873763214845645E-3</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>26</v>
       </c>
@@ -5140,13 +5140,13 @@
         <v>0.78007635309307921</v>
       </c>
       <c r="J59">
-        <v>23725.82348899361</v>
+        <v>2.372582348899361E-2</v>
       </c>
       <c r="K59">
-        <v>1737.485231093066</v>
-      </c>
-    </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.45">
+        <v>1.7374852310930659E-3</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>26</v>
       </c>
@@ -5173,13 +5173,13 @@
         <v>0.60026272816962623</v>
       </c>
       <c r="J60">
-        <v>14943.812709409469</v>
+        <v>1.4943812709409469E-2</v>
       </c>
       <c r="K60">
-        <v>924.40830456992296</v>
-      </c>
-    </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.45">
+        <v>9.2440830456992293E-4</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>26</v>
       </c>
@@ -5200,7 +5200,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>33</v>
       </c>
@@ -5227,13 +5227,13 @@
         <v>0.12265894826516663</v>
       </c>
       <c r="J62">
-        <v>29255.329738405955</v>
+        <v>2.9255329738405954E-2</v>
       </c>
       <c r="K62">
-        <v>499.48444698842889</v>
-      </c>
-    </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.45">
+        <v>4.9948444698842893E-4</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>33</v>
       </c>
@@ -5260,13 +5260,13 @@
         <v>2.1850711729543688</v>
       </c>
       <c r="J63">
-        <v>34014.730972022349</v>
+        <v>3.4014730972022351E-2</v>
       </c>
       <c r="K63">
-        <v>7313.1454123011063</v>
-      </c>
-    </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.45">
+        <v>7.3131454123011065E-3</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>33</v>
       </c>
@@ -5293,13 +5293,13 @@
         <v>0.86339797296335064</v>
       </c>
       <c r="J64">
-        <v>29922.956209841203</v>
+        <v>2.9922956209841204E-2</v>
       </c>
       <c r="K64">
-        <v>1292.5743597344972</v>
-      </c>
-    </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.45">
+        <v>1.2925743597344973E-3</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>33</v>
       </c>
@@ -5326,13 +5326,13 @@
         <v>0.54518046016711252</v>
       </c>
       <c r="J65">
-        <v>26578.171228448275</v>
+        <v>2.6578171228448275E-2</v>
       </c>
       <c r="K65">
-        <v>1907.2545852373919</v>
-      </c>
-    </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.45">
+        <v>1.9072545852373919E-3</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>33</v>
       </c>
@@ -5353,7 +5353,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>34</v>
       </c>
@@ -5380,13 +5380,13 @@
         <v>0.50897267313081362</v>
       </c>
       <c r="J67">
-        <v>26147.731548658165</v>
+        <v>2.6147731548658164E-2</v>
       </c>
       <c r="K67">
-        <v>1251.8115228659331</v>
-      </c>
-    </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.45">
+        <v>1.2518115228659331E-3</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>34</v>
       </c>
@@ -5413,13 +5413,13 @@
         <v>0.97390439714144228</v>
       </c>
       <c r="J68">
-        <v>25741.482849263095</v>
+        <v>2.5741482849263093E-2</v>
       </c>
       <c r="K68">
-        <v>1256.9665960549767</v>
-      </c>
-    </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.45">
+        <v>1.2569665960549766E-3</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>34</v>
       </c>
@@ -5446,13 +5446,13 @@
         <v>1.5847846173699021</v>
       </c>
       <c r="J69">
-        <v>27372.006390757062</v>
+        <v>2.7372006390757063E-2</v>
       </c>
       <c r="K69">
-        <v>4264.9713890035791</v>
-      </c>
-    </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.45">
+        <v>4.2649713890035796E-3</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>34</v>
       </c>
@@ -5479,13 +5479,13 @@
         <v>1.381670060945166</v>
       </c>
       <c r="J70">
-        <v>20882.836814086815</v>
+        <v>2.0882836814086814E-2</v>
       </c>
       <c r="K70">
-        <v>1660.0434474942779</v>
-      </c>
-    </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.45">
+        <v>1.6600434474942779E-3</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>34</v>
       </c>
@@ -5506,7 +5506,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>35</v>
       </c>
@@ -5533,13 +5533,13 @@
         <v>9.1299985157566252E-2</v>
       </c>
       <c r="J72">
-        <v>25247.784106913201</v>
+        <v>2.5247784106913199E-2</v>
       </c>
       <c r="K72">
-        <v>263.08104979009676</v>
-      </c>
-    </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.45">
+        <v>2.6308104979009677E-4</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>35</v>
       </c>
@@ -5566,13 +5566,13 @@
         <v>0.8181947739607911</v>
       </c>
       <c r="J73">
-        <v>26932.413748762108</v>
+        <v>2.6932413748762107E-2</v>
       </c>
       <c r="K73">
-        <v>2430.5368915199106</v>
-      </c>
-    </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.45">
+        <v>2.4305368915199105E-3</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>35</v>
       </c>
@@ -5599,13 +5599,13 @@
         <v>0.92649999999999999</v>
       </c>
       <c r="J74">
-        <v>29075.905004488865</v>
+        <v>2.9075905004488863E-2</v>
       </c>
       <c r="K74">
-        <v>2110.2297968990433</v>
-      </c>
-    </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.45">
+        <v>2.1102297968990432E-3</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>35</v>
       </c>
@@ -5632,13 +5632,13 @@
         <v>2.3877681918159439</v>
       </c>
       <c r="J75">
-        <v>21016.346518065267</v>
+        <v>2.1016346518065266E-2</v>
       </c>
       <c r="K75">
-        <v>3509.0814280018794</v>
-      </c>
-    </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.45">
+        <v>3.5090814280018794E-3</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>35</v>
       </c>
@@ -5659,7 +5659,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>36</v>
       </c>
@@ -5686,13 +5686,13 @@
         <v>0.15956609184478998</v>
       </c>
       <c r="J77">
-        <v>27352.67491050981</v>
+        <v>2.735267491050981E-2</v>
       </c>
       <c r="K77">
-        <v>1380.3894468263281</v>
-      </c>
-    </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.45">
+        <v>1.3803894468263282E-3</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>36</v>
       </c>
@@ -5719,13 +5719,13 @@
         <v>1.366354124350956</v>
       </c>
       <c r="J78">
-        <v>25143.112829054484</v>
+        <v>2.5143112829054483E-2</v>
       </c>
       <c r="K78">
-        <v>6815.8981408947811</v>
-      </c>
-    </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.45">
+        <v>6.815898140894781E-3</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>36</v>
       </c>
@@ -5752,13 +5752,13 @@
         <v>1.348436900736564</v>
       </c>
       <c r="J79">
-        <v>30121.011508551957</v>
+        <v>3.0121011508551957E-2</v>
       </c>
       <c r="K79">
-        <v>3265.4695373589698</v>
-      </c>
-    </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.45">
+        <v>3.2654695373589698E-3</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>36</v>
       </c>
@@ -5785,13 +5785,13 @@
         <v>0.95748349346020134</v>
       </c>
       <c r="J80">
-        <v>20184.436021186022</v>
+        <v>2.0184436021186022E-2</v>
       </c>
       <c r="K80">
-        <v>1956.5048081689438</v>
-      </c>
-    </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.45">
+        <v>1.9565048081689436E-3</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>36</v>
       </c>
@@ -5812,7 +5812,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>37</v>
       </c>
@@ -5839,13 +5839,13 @@
         <v>0.23215690530138658</v>
       </c>
       <c r="J82">
-        <v>29564.399721771661</v>
+        <v>2.9564399721771661E-2</v>
       </c>
       <c r="K82">
-        <v>1424.080930724647</v>
-      </c>
-    </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.45">
+        <v>1.424080930724647E-3</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>37</v>
       </c>
@@ -5872,13 +5872,13 @@
         <v>2.0580264445992378</v>
       </c>
       <c r="J83">
-        <v>28590.964387187578</v>
+        <v>2.8590964387187577E-2</v>
       </c>
       <c r="K83">
-        <v>3084.5508913258645</v>
-      </c>
-    </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.45">
+        <v>3.0845508913258644E-3</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>37</v>
       </c>
@@ -5905,13 +5905,13 @@
         <v>0.50538707653077175</v>
       </c>
       <c r="J84">
-        <v>28452.160703112455</v>
+        <v>2.8452160703112454E-2</v>
       </c>
       <c r="K84">
-        <v>4711.0588589990111</v>
-      </c>
-    </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.45">
+        <v>4.7110588589990114E-3</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>37</v>
       </c>
@@ -5938,13 +5938,13 @@
         <v>0.54454684549932164</v>
       </c>
       <c r="J85">
-        <v>21551.558401232112</v>
+        <v>2.1551558401232112E-2</v>
       </c>
       <c r="K85">
-        <v>1394.615583173829</v>
-      </c>
-    </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.45">
+        <v>1.394615583173829E-3</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>37</v>
       </c>
@@ -5965,7 +5965,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>38</v>
       </c>
@@ -5992,13 +5992,13 @@
         <v>0.16082554536459956</v>
       </c>
       <c r="J87">
-        <v>28858.465177153572</v>
+        <v>2.8858465177153573E-2</v>
       </c>
       <c r="K87">
-        <v>1516.5814221575499</v>
-      </c>
-    </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.45">
+        <v>1.5165814221575499E-3</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>38</v>
       </c>
@@ -6025,13 +6025,13 @@
         <v>1.9583318935056107</v>
       </c>
       <c r="J88">
-        <v>25307.150330467921</v>
+        <v>2.5307150330467921E-2</v>
       </c>
       <c r="K88">
-        <v>1281.4470590477606</v>
-      </c>
-    </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.45">
+        <v>1.2814470590477606E-3</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>38</v>
       </c>
@@ -6058,13 +6058,13 @@
         <v>1.2585739426437255</v>
       </c>
       <c r="J89">
-        <v>30603.178459282506</v>
+        <v>3.0603178459282506E-2</v>
       </c>
       <c r="K89">
-        <v>3273.6070322803153</v>
-      </c>
-    </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.45">
+        <v>3.2736070322803151E-3</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>38</v>
       </c>
@@ -6091,13 +6091,13 @@
         <v>1.3438853887203632</v>
       </c>
       <c r="J90">
-        <v>19858.038755473743</v>
+        <v>1.9858038755473744E-2</v>
       </c>
       <c r="K90">
-        <v>3770.2320318199759</v>
-      </c>
-    </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.45">
+        <v>3.770232031819976E-3</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>38</v>
       </c>
@@ -6118,7 +6118,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>39</v>
       </c>
@@ -6145,13 +6145,13 @@
         <v>0.55080849972742396</v>
       </c>
       <c r="J92">
-        <v>27187.847582517315</v>
+        <v>2.7187847582517317E-2</v>
       </c>
       <c r="K92">
-        <v>1010.7908093004996</v>
-      </c>
-    </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.45">
+        <v>1.0107908093004996E-3</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>39</v>
       </c>
@@ -6178,13 +6178,13 @@
         <v>1.3281384733601305</v>
       </c>
       <c r="J93">
-        <v>27974.296073268019</v>
+        <v>2.7974296073268019E-2</v>
       </c>
       <c r="K93">
-        <v>3031.0089300191216</v>
-      </c>
-    </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.45">
+        <v>3.0310089300191216E-3</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>39</v>
       </c>
@@ -6211,13 +6211,13 @@
         <v>1.4206966889162886</v>
       </c>
       <c r="J94">
-        <v>33002.136653707108</v>
+        <v>3.3002136653707111E-2</v>
       </c>
       <c r="K94">
-        <v>4523.0124224055662</v>
-      </c>
-    </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.45">
+        <v>4.5230124224055661E-3</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>39</v>
       </c>
@@ -6244,13 +6244,13 @@
         <v>0.96654289308964858</v>
       </c>
       <c r="J95">
-        <v>22868.964037698413</v>
+        <v>2.2868964037698412E-2</v>
       </c>
       <c r="K95">
-        <v>785.63048574600566</v>
-      </c>
-    </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.45">
+        <v>7.8563048574600565E-4</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>39</v>
       </c>
@@ -6271,7 +6271,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>40</v>
       </c>
@@ -6298,13 +6298,13 @@
         <v>0.24676826825173526</v>
       </c>
       <c r="J97">
-        <v>27750.277021148526</v>
+        <v>2.7750277021148524E-2</v>
       </c>
       <c r="K97">
-        <v>730.80252304167948</v>
-      </c>
-    </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.45">
+        <v>7.3080252304167943E-4</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>40</v>
       </c>
@@ -6331,13 +6331,13 @@
         <v>1.8689178603825622</v>
       </c>
       <c r="J98">
-        <v>29801.582238909508</v>
+        <v>2.9801582238909507E-2</v>
       </c>
       <c r="K98">
-        <v>2032.1243066354195</v>
-      </c>
-    </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.45">
+        <v>2.0321243066354195E-3</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>40</v>
       </c>
@@ -6364,13 +6364,13 @@
         <v>1.0524775967512114</v>
       </c>
       <c r="J99">
-        <v>26527.689932165697</v>
+        <v>2.6527689932165695E-2</v>
       </c>
       <c r="K99">
-        <v>2989.8271724744327</v>
-      </c>
-    </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.45">
+        <v>2.9898271724744328E-3</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>40</v>
       </c>
@@ -6397,13 +6397,13 @@
         <v>1.569245953197437</v>
       </c>
       <c r="J100">
-        <v>20170.467218137259</v>
+        <v>2.0170467218137259E-2</v>
       </c>
       <c r="K100">
-        <v>1206.3851936407561</v>
-      </c>
-    </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.45">
+        <v>1.2063851936407561E-3</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>40</v>
       </c>
@@ -6424,7 +6424,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>41</v>
       </c>
@@ -6451,13 +6451,13 @@
         <v>0.29298501145422373</v>
       </c>
       <c r="J102">
-        <v>26510.423793398593</v>
+        <v>2.6510423793398592E-2</v>
       </c>
       <c r="K102">
-        <v>1690.6309505501299</v>
-      </c>
-    </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.45">
+        <v>1.69063095055013E-3</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>41</v>
       </c>
@@ -6484,13 +6484,13 @@
         <v>0.97481871773363094</v>
       </c>
       <c r="J103">
-        <v>28658.900189786058</v>
+        <v>2.8658900189786059E-2</v>
       </c>
       <c r="K103">
-        <v>2296.9442757999982</v>
-      </c>
-    </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.45">
+        <v>2.2969442757999983E-3</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>41</v>
       </c>
@@ -6517,13 +6517,13 @@
         <v>0.52797141911882617</v>
       </c>
       <c r="J104">
-        <v>28345.464896483303</v>
+        <v>2.8345464896483302E-2</v>
       </c>
       <c r="K104">
-        <v>2887.6825364260803</v>
-      </c>
-    </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.45">
+        <v>2.8876825364260801E-3</v>
+      </c>
+    </row>
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>41</v>
       </c>
@@ -6550,13 +6550,13 @@
         <v>0.78146758081571233</v>
       </c>
       <c r="J105">
-        <v>21401.899827188943</v>
+        <v>2.1401899827188944E-2</v>
       </c>
       <c r="K105">
-        <v>1476.0376725020533</v>
-      </c>
-    </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.45">
+        <v>1.4760376725020533E-3</v>
+      </c>
+    </row>
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>41</v>
       </c>
@@ -6577,7 +6577,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>42</v>
       </c>
@@ -6604,13 +6604,13 @@
         <v>0.2975734133589592</v>
       </c>
       <c r="J107">
-        <v>25670.019284413876</v>
+        <v>2.5670019284413877E-2</v>
       </c>
       <c r="K107">
-        <v>2108.2177490875783</v>
-      </c>
-    </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.45">
+        <v>2.1082177490875783E-3</v>
+      </c>
+    </row>
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>42</v>
       </c>
@@ -6631,7 +6631,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>42</v>
       </c>
@@ -6658,13 +6658,13 @@
         <v>0.33863889432444932</v>
       </c>
       <c r="J109">
-        <v>27150.759068278807</v>
+        <v>2.7150759068278806E-2</v>
       </c>
       <c r="K109">
-        <v>2221.3107397778149</v>
-      </c>
-    </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.45">
+        <v>2.2213107397778147E-3</v>
+      </c>
+    </row>
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>42</v>
       </c>
@@ -6691,13 +6691,13 @@
         <v>1.3183616925157642</v>
       </c>
       <c r="J110">
-        <v>22168.485750360756</v>
+        <v>2.2168485750360758E-2</v>
       </c>
       <c r="K110">
-        <v>2303.22916029725</v>
-      </c>
-    </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.45">
+        <v>2.3032291602972498E-3</v>
+      </c>
+    </row>
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>42</v>
       </c>
@@ -6718,7 +6718,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>43</v>
       </c>
@@ -6745,13 +6745,13 @@
         <v>0.26482318329974486</v>
       </c>
       <c r="J112">
-        <v>26695.427080376001</v>
+        <v>2.6695427080376002E-2</v>
       </c>
       <c r="K112">
-        <v>1202.8974793085929</v>
-      </c>
-    </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.45">
+        <v>1.2028974793085929E-3</v>
+      </c>
+    </row>
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>43</v>
       </c>
@@ -6772,7 +6772,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>43</v>
       </c>
@@ -6799,13 +6799,13 @@
         <v>0.21090542712572313</v>
       </c>
       <c r="J114">
-        <v>27053.70274080028</v>
+        <v>2.7053702740800281E-2</v>
       </c>
       <c r="K114">
-        <v>1928.0184713671897</v>
-      </c>
-    </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.45">
+        <v>1.9280184713671897E-3</v>
+      </c>
+    </row>
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>43</v>
       </c>
@@ -6832,13 +6832,13 @@
         <v>0.89774332788848643</v>
       </c>
       <c r="J115">
-        <v>24220.552549302542</v>
+        <v>2.422055254930254E-2</v>
       </c>
       <c r="K115">
-        <v>3019.7930214935682</v>
-      </c>
-    </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.45">
+        <v>3.019793021493568E-3</v>
+      </c>
+    </row>
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>43</v>
       </c>
@@ -6859,7 +6859,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>44</v>
       </c>
@@ -6886,13 +6886,13 @@
         <v>0.28511708212007142</v>
       </c>
       <c r="J117">
-        <v>27818.130086238561</v>
+        <v>2.7818130086238561E-2</v>
       </c>
       <c r="K117">
-        <v>1148.4580155069443</v>
-      </c>
-    </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.45">
+        <v>1.1484580155069442E-3</v>
+      </c>
+    </row>
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>44</v>
       </c>
@@ -6919,13 +6919,13 @@
         <v>1.8638390533943918</v>
       </c>
       <c r="J118">
-        <v>27644.93512626841</v>
+        <v>2.7644935126268411E-2</v>
       </c>
       <c r="K118">
-        <v>3052.175714737416</v>
-      </c>
-    </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.45">
+        <v>3.0521757147374158E-3</v>
+      </c>
+    </row>
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>44</v>
       </c>
@@ -6952,13 +6952,13 @@
         <v>0.52697325169450404</v>
       </c>
       <c r="J119">
-        <v>29279.886903271494</v>
+        <v>2.9279886903271494E-2</v>
       </c>
       <c r="K119">
-        <v>844.34848815931855</v>
-      </c>
-    </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.45">
+        <v>8.443484881593185E-4</v>
+      </c>
+    </row>
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>44</v>
       </c>
@@ -6985,13 +6985,13 @@
         <v>0.44778511243198094</v>
       </c>
       <c r="J120">
-        <v>18922.037340742751</v>
+        <v>1.8922037340742749E-2</v>
       </c>
       <c r="K120">
-        <v>1071.9760196779469</v>
-      </c>
-    </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.45">
+        <v>1.0719760196779469E-3</v>
+      </c>
+    </row>
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>44</v>
       </c>
@@ -7012,7 +7012,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>45</v>
       </c>
@@ -7035,13 +7035,13 @@
         <v>0.13957157795526853</v>
       </c>
       <c r="J122" s="9">
-        <v>25519.627584975846</v>
+        <v>2.5519627584975845E-2</v>
       </c>
       <c r="K122" s="9">
-        <v>1038.4643851667142</v>
-      </c>
-    </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.45">
+        <v>1.0384643851667143E-3</v>
+      </c>
+    </row>
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>45</v>
       </c>
@@ -7064,13 +7064,13 @@
         <v>0.29775368758705445</v>
       </c>
       <c r="J123" s="9">
-        <v>25837.70794125519</v>
+        <v>2.583770794125519E-2</v>
       </c>
       <c r="K123" s="9">
-        <v>1206.0178378778326</v>
-      </c>
-    </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.45">
+        <v>1.2060178378778326E-3</v>
+      </c>
+    </row>
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>45</v>
       </c>
@@ -7093,13 +7093,13 @@
         <v>0.19144454382062417</v>
       </c>
       <c r="J124" s="9">
-        <v>22923.549868467999</v>
+        <v>2.2923549868468E-2</v>
       </c>
       <c r="K124" s="9">
-        <v>1569.8523073225604</v>
-      </c>
-    </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.45">
+        <v>1.5698523073225605E-3</v>
+      </c>
+    </row>
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>45</v>
       </c>
@@ -7122,13 +7122,13 @@
         <v>0.45666948167239196</v>
       </c>
       <c r="J125" s="9">
-        <v>18370.144249324519</v>
+        <v>1.8370144249324521E-2</v>
       </c>
       <c r="K125" s="9">
-        <v>1127.8073106489749</v>
-      </c>
-    </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.45">
+        <v>1.1278073106489748E-3</v>
+      </c>
+    </row>
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>45</v>
       </c>
@@ -7149,7 +7149,7 @@
       <c r="J126" s="9"/>
       <c r="K126" s="9"/>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>47</v>
       </c>
@@ -7172,13 +7172,13 @@
         <v>0.21129732474663893</v>
       </c>
       <c r="J127" s="9">
-        <v>26853.4723634775</v>
+        <v>2.6853472363477501E-2</v>
       </c>
       <c r="K127" s="9">
-        <v>1424.8779007154594</v>
-      </c>
-    </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.45">
+        <v>1.4248779007154594E-3</v>
+      </c>
+    </row>
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>47</v>
       </c>
@@ -7201,13 +7201,13 @@
         <v>0.255044208646931</v>
       </c>
       <c r="J128" s="9">
-        <v>27142.114974422995</v>
+        <v>2.7142114974422996E-2</v>
       </c>
       <c r="K128" s="9">
-        <v>1861.4504898634684</v>
-      </c>
-    </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.45">
+        <v>1.8614504898634683E-3</v>
+      </c>
+    </row>
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>47</v>
       </c>
@@ -7230,13 +7230,13 @@
         <v>1.222169212305799</v>
       </c>
       <c r="J129" s="9">
-        <v>24044.630891212568</v>
+        <v>2.4044630891212566E-2</v>
       </c>
       <c r="K129" s="9">
-        <v>2503.1483835987524</v>
-      </c>
-    </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.45">
+        <v>2.5031483835987523E-3</v>
+      </c>
+    </row>
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>47</v>
       </c>
@@ -7259,13 +7259,13 @@
         <v>0.66437613731741441</v>
       </c>
       <c r="J130" s="9">
-        <v>18243.113559570953</v>
+        <v>1.8243113559570954E-2</v>
       </c>
       <c r="K130" s="9">
-        <v>1323.7317546719682</v>
-      </c>
-    </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.45">
+        <v>1.3237317546719682E-3</v>
+      </c>
+    </row>
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>47</v>
       </c>
@@ -7286,7 +7286,7 @@
       <c r="J131" s="9"/>
       <c r="K131" s="9"/>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>46</v>
       </c>
@@ -7309,13 +7309,13 @@
         <v>0.47642968410142761</v>
       </c>
       <c r="J132" s="9">
-        <v>21001.585130448326</v>
+        <v>2.1001585130448325E-2</v>
       </c>
       <c r="K132" s="9">
-        <v>5768.7345179015347</v>
-      </c>
-    </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.45">
+        <v>5.7687345179015343E-3</v>
+      </c>
+    </row>
+    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>46</v>
       </c>
@@ -7338,13 +7338,13 @@
         <v>0.35114243949665785</v>
       </c>
       <c r="J133" s="9">
-        <v>24649.982983823007</v>
+        <v>2.4649982983823007E-2</v>
       </c>
       <c r="K133" s="9">
-        <v>1792.6410573616972</v>
-      </c>
-    </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.45">
+        <v>1.7926410573616972E-3</v>
+      </c>
+    </row>
+    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>46</v>
       </c>
@@ -7367,13 +7367,13 @@
         <v>0.32425636369966743</v>
       </c>
       <c r="J134" s="9">
-        <v>22184.104439364179</v>
+        <v>2.218410443936418E-2</v>
       </c>
       <c r="K134" s="9">
-        <v>1009.5286286858151</v>
-      </c>
-    </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.45">
+        <v>1.009528628685815E-3</v>
+      </c>
+    </row>
+    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>46</v>
       </c>
@@ -7396,13 +7396,13 @@
         <v>0.16897057081717501</v>
       </c>
       <c r="J135" s="9">
-        <v>16902.721756139945</v>
+        <v>1.6902721756139945E-2</v>
       </c>
       <c r="K135" s="9">
-        <v>1239.6092975290023</v>
-      </c>
-    </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.45">
+        <v>1.2396092975290023E-3</v>
+      </c>
+    </row>
+    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>46</v>
       </c>
@@ -7423,7 +7423,7 @@
       <c r="J136" s="9"/>
       <c r="K136" s="9"/>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>54</v>
       </c>
@@ -7446,13 +7446,13 @@
         <v>0.71521322910025931</v>
       </c>
       <c r="J137" s="9">
-        <v>28869.024133161518</v>
+        <v>2.8869024133161517E-2</v>
       </c>
       <c r="K137" s="9">
-        <v>1391.5179718025888</v>
-      </c>
-    </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.45">
+        <v>1.3915179718025888E-3</v>
+      </c>
+    </row>
+    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>54</v>
       </c>
@@ -7475,13 +7475,13 @@
         <v>0.41534375962409592</v>
       </c>
       <c r="J138" s="9">
-        <v>29276.844294569251</v>
+        <v>2.9276844294569251E-2</v>
       </c>
       <c r="K138" s="9">
-        <v>2194.8703612657969</v>
-      </c>
-    </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.45">
+        <v>2.194870361265797E-3</v>
+      </c>
+    </row>
+    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>54</v>
       </c>
@@ -7504,13 +7504,13 @@
         <v>0.63888565477106385</v>
       </c>
       <c r="J139" s="9">
-        <v>24449.552749209393</v>
+        <v>2.4449552749209392E-2</v>
       </c>
       <c r="K139" s="9">
-        <v>2082.3424794510715</v>
-      </c>
-    </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.45">
+        <v>2.0823424794510713E-3</v>
+      </c>
+    </row>
+    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>54</v>
       </c>
@@ -7533,13 +7533,13 @@
         <v>0.53527036019551311</v>
       </c>
       <c r="J140" s="9">
-        <v>18915.943367464752</v>
+        <v>1.8915943367464751E-2</v>
       </c>
       <c r="K140" s="9">
-        <v>1666.8976460471495</v>
-      </c>
-    </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.45">
+        <v>1.6668976460471495E-3</v>
+      </c>
+    </row>
+    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>54</v>
       </c>
@@ -7560,7 +7560,7 @@
       <c r="J141" s="9"/>
       <c r="K141" s="9"/>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>56</v>
       </c>
@@ -7583,13 +7583,13 @@
         <v>0.64702864432147267</v>
       </c>
       <c r="J142" s="9">
-        <v>27318.578410178689</v>
+        <v>2.7318578410178689E-2</v>
       </c>
       <c r="K142" s="9">
-        <v>1645.5240356353138</v>
-      </c>
-    </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.45">
+        <v>1.6455240356353137E-3</v>
+      </c>
+    </row>
+    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>56</v>
       </c>
@@ -7612,13 +7612,13 @@
         <v>0.47441420571477599</v>
       </c>
       <c r="J143" s="9">
-        <v>25747.26143376033</v>
+        <v>2.574726143376033E-2</v>
       </c>
       <c r="K143" s="9">
-        <v>1167.5222403778869</v>
-      </c>
-    </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.45">
+        <v>1.1675222403778869E-3</v>
+      </c>
+    </row>
+    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>56</v>
       </c>
@@ -7641,13 +7641,13 @@
         <v>0.94912337690887982</v>
       </c>
       <c r="J144" s="9">
-        <v>23289.623327282337</v>
+        <v>2.3289623327282339E-2</v>
       </c>
       <c r="K144" s="9">
-        <v>1473.434161403645</v>
-      </c>
-    </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.45">
+        <v>1.473434161403645E-3</v>
+      </c>
+    </row>
+    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>56</v>
       </c>
@@ -7670,13 +7670,13 @@
         <v>0.80107469115096086</v>
       </c>
       <c r="J145" s="9">
-        <v>17845.425651919752</v>
+        <v>1.7845425651919752E-2</v>
       </c>
       <c r="K145" s="9">
-        <v>774.34164221532274</v>
-      </c>
-    </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.45">
+        <v>7.743416422153227E-4</v>
+      </c>
+    </row>
+    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>56</v>
       </c>
@@ -7697,7 +7697,7 @@
       <c r="J146" s="9"/>
       <c r="K146" s="9"/>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>52</v>
       </c>
@@ -7720,13 +7720,13 @@
         <v>0.37566852664698158</v>
       </c>
       <c r="J147" s="9">
-        <v>26371.861224161152</v>
+        <v>2.6371861224161151E-2</v>
       </c>
       <c r="K147" s="9">
-        <v>5397.9753782981788</v>
-      </c>
-    </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.45">
+        <v>5.3979753782981785E-3</v>
+      </c>
+    </row>
+    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>52</v>
       </c>
@@ -7749,13 +7749,13 @@
         <v>0.34343737091098947</v>
       </c>
       <c r="J148" s="9">
-        <v>24981.759079368654</v>
+        <v>2.4981759079368653E-2</v>
       </c>
       <c r="K148" s="9">
-        <v>2590.2272556311987</v>
-      </c>
-    </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.45">
+        <v>2.5902272556311986E-3</v>
+      </c>
+    </row>
+    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>52</v>
       </c>
@@ -7778,13 +7778,13 @@
         <v>0.68031752594645201</v>
       </c>
       <c r="J149" s="9">
-        <v>18319.626985545467</v>
+        <v>1.8319626985545467E-2</v>
       </c>
       <c r="K149" s="9">
-        <v>1127.390933516496</v>
-      </c>
-    </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.45">
+        <v>1.1273909335164961E-3</v>
+      </c>
+    </row>
+    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>52</v>
       </c>
@@ -7807,13 +7807,13 @@
         <v>0.26144134238478117</v>
       </c>
       <c r="J150" s="9">
-        <v>18460.474887818684</v>
+        <v>1.8460474887818684E-2</v>
       </c>
       <c r="K150" s="9">
-        <v>352.09534674089679</v>
-      </c>
-    </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.45">
+        <v>3.5209534674089676E-4</v>
+      </c>
+    </row>
+    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>52</v>
       </c>
@@ -7834,7 +7834,7 @@
       <c r="J151" s="9"/>
       <c r="K151" s="9"/>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>55</v>
       </c>
@@ -7857,13 +7857,13 @@
         <v>0.21359480877776069</v>
       </c>
       <c r="J152" s="9">
-        <v>27517.869208131549</v>
+        <v>2.7517869208131551E-2</v>
       </c>
       <c r="K152" s="9">
-        <v>1562.3713400446632</v>
-      </c>
-    </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.45">
+        <v>1.5623713400446631E-3</v>
+      </c>
+    </row>
+    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>55</v>
       </c>
@@ -7879,20 +7879,12 @@
       <c r="F153" t="s">
         <v>11</v>
       </c>
-      <c r="H153" s="9" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I153" s="9" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J153" s="9" t="e">
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K153" s="9" t="e">
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="H153" s="9"/>
+      <c r="I153" s="9"/>
+      <c r="J153" s="9"/>
+      <c r="K153" s="9"/>
+    </row>
+    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>55</v>
       </c>
@@ -7915,13 +7907,13 @@
         <v>1.0813901348990833</v>
       </c>
       <c r="J154" s="9">
-        <v>23009.6698252735</v>
+        <v>2.3009669825273499E-2</v>
       </c>
       <c r="K154" s="9">
-        <v>797.60658848264347</v>
-      </c>
-    </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.45">
+        <v>7.9760658848264344E-4</v>
+      </c>
+    </row>
+    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>55</v>
       </c>
@@ -7944,13 +7936,13 @@
         <v>0.64564603461621872</v>
       </c>
       <c r="J155" s="9">
-        <v>17236.62367615748</v>
+        <v>1.723662367615748E-2</v>
       </c>
       <c r="K155" s="9">
-        <v>3384.6742750685321</v>
-      </c>
-    </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.45">
+        <v>3.384674275068532E-3</v>
+      </c>
+    </row>
+    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>55</v>
       </c>
@@ -7971,7 +7963,7 @@
       <c r="J156" s="9"/>
       <c r="K156" s="9"/>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>53</v>
       </c>
@@ -7994,13 +7986,13 @@
         <v>0.78101529140052706</v>
       </c>
       <c r="J157" s="9">
-        <v>29445.659991449327</v>
+        <v>2.9445659991449328E-2</v>
       </c>
       <c r="K157" s="9">
-        <v>3658.0334533784967</v>
-      </c>
-    </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.45">
+        <v>3.6580334533784968E-3</v>
+      </c>
+    </row>
+    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>53</v>
       </c>
@@ -8023,13 +8015,13 @@
         <v>0.98926675609678172</v>
       </c>
       <c r="J158" s="9">
-        <v>28248.066084108003</v>
+        <v>2.8248066084108004E-2</v>
       </c>
       <c r="K158" s="9">
-        <v>1250.4565604911065</v>
-      </c>
-    </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.45">
+        <v>1.2504565604911065E-3</v>
+      </c>
+    </row>
+    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>53</v>
       </c>
@@ -8052,13 +8044,13 @@
         <v>0.76893505812214691</v>
       </c>
       <c r="J159" s="9">
-        <v>23655.414284311035</v>
+        <v>2.3655414284311036E-2</v>
       </c>
       <c r="K159" s="9">
-        <v>930.2403508375935</v>
-      </c>
-    </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.45">
+        <v>9.302403508375935E-4</v>
+      </c>
+    </row>
+    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>53</v>
       </c>
@@ -8081,13 +8073,13 @@
         <v>0.20061053602354068</v>
       </c>
       <c r="J160" s="9">
-        <v>19219.251152305522</v>
+        <v>1.9219251152305522E-2</v>
       </c>
       <c r="K160" s="9">
-        <v>751.46622174515687</v>
-      </c>
-    </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.45">
+        <v>7.5146622174515685E-4</v>
+      </c>
+    </row>
+    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>53</v>
       </c>
@@ -8108,7 +8100,7 @@
       <c r="J161" s="9"/>
       <c r="K161" s="9"/>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>50</v>
       </c>
@@ -8131,13 +8123,13 @@
         <v>0.72092627018615185</v>
       </c>
       <c r="J162" s="9">
-        <v>26258.129348588351</v>
+        <v>2.6258129348588351E-2</v>
       </c>
       <c r="K162" s="9">
-        <v>1679.9649903869692</v>
-      </c>
-    </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.45">
+        <v>1.6799649903869692E-3</v>
+      </c>
+    </row>
+    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>50</v>
       </c>
@@ -8160,13 +8152,13 @@
         <v>0.23096792249088677</v>
       </c>
       <c r="J163" s="9">
-        <v>27133.096778208674</v>
+        <v>2.7133096778208673E-2</v>
       </c>
       <c r="K163" s="9">
-        <v>2171.1238921312333</v>
-      </c>
-    </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.45">
+        <v>2.1711238921312335E-3</v>
+      </c>
+    </row>
+    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>50</v>
       </c>
@@ -8189,13 +8181,13 @@
         <v>0.33328566916187252</v>
       </c>
       <c r="J164" s="9">
-        <v>24644.336301451742</v>
+        <v>2.4644336301451741E-2</v>
       </c>
       <c r="K164" s="9">
-        <v>900.10185873374894</v>
-      </c>
-    </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.45">
+        <v>9.0010185873374898E-4</v>
+      </c>
+    </row>
+    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>50</v>
       </c>
@@ -8218,13 +8210,13 @@
         <v>0.71631590322285699</v>
       </c>
       <c r="J165" s="9">
-        <v>18240.325658053898</v>
+        <v>1.8240325658053898E-2</v>
       </c>
       <c r="K165" s="9">
-        <v>1266.9968906806396</v>
-      </c>
-    </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.45">
+        <v>1.2669968906806395E-3</v>
+      </c>
+    </row>
+    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>50</v>
       </c>
@@ -8245,7 +8237,7 @@
       <c r="J166" s="9"/>
       <c r="K166" s="9"/>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>51</v>
       </c>
@@ -8268,13 +8260,13 @@
         <v>0.19753822019221096</v>
       </c>
       <c r="J167" s="9">
-        <v>28079.144907636855</v>
+        <v>2.8079144907636855E-2</v>
       </c>
       <c r="K167" s="9">
-        <v>2544.1037332643382</v>
-      </c>
-    </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.45">
+        <v>2.5441037332643384E-3</v>
+      </c>
+    </row>
+    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>51</v>
       </c>
@@ -8297,13 +8289,13 @@
         <v>0.73179789673840412</v>
       </c>
       <c r="J168" s="9">
-        <v>27456.005982995342</v>
+        <v>2.7456005982995343E-2</v>
       </c>
       <c r="K168" s="9">
-        <v>731.1966381265521</v>
-      </c>
-    </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.45">
+        <v>7.3119663812655207E-4</v>
+      </c>
+    </row>
+    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>51</v>
       </c>
@@ -8326,13 +8318,13 @@
         <v>0.54543272854297864</v>
       </c>
       <c r="J169" s="9">
-        <v>22733.698790676088</v>
+        <v>2.2733698790676087E-2</v>
       </c>
       <c r="K169" s="9">
-        <v>1170.7803895060724</v>
-      </c>
-    </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.45">
+        <v>1.1707803895060725E-3</v>
+      </c>
+    </row>
+    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>51</v>
       </c>
@@ -8355,13 +8347,13 @@
         <v>0.37554307082629101</v>
       </c>
       <c r="J170" s="9">
-        <v>18847.651911515663</v>
+        <v>1.8847651911515662E-2</v>
       </c>
       <c r="K170" s="9">
-        <v>1346.5402394040952</v>
-      </c>
-    </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.45">
+        <v>1.3465402394040953E-3</v>
+      </c>
+    </row>
+    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>51</v>
       </c>
@@ -8382,7 +8374,7 @@
       <c r="J171" s="9"/>
       <c r="K171" s="9"/>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>49</v>
       </c>
@@ -8405,13 +8397,13 @@
         <v>0.3019939756069499</v>
       </c>
       <c r="J172" s="9">
-        <v>25799.720101234794</v>
+        <v>2.5799720101234793E-2</v>
       </c>
       <c r="K172" s="9">
-        <v>1440.6215841185813</v>
-      </c>
-    </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.45">
+        <v>1.4406215841185812E-3</v>
+      </c>
+    </row>
+    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>49</v>
       </c>
@@ -8434,13 +8426,13 @@
         <v>0.20524675132457609</v>
       </c>
       <c r="J173" s="9">
-        <v>27483.747186196357</v>
+        <v>2.7483747186196356E-2</v>
       </c>
       <c r="K173" s="9">
-        <v>1078.9662939308441</v>
-      </c>
-    </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.45">
+        <v>1.0789662939308441E-3</v>
+      </c>
+    </row>
+    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>49</v>
       </c>
@@ -8463,13 +8455,13 @@
         <v>0.89763928589161179</v>
       </c>
       <c r="J174" s="9">
-        <v>25406.033058935573</v>
+        <v>2.5406033058935573E-2</v>
       </c>
       <c r="K174" s="9">
-        <v>1408.7028121813344</v>
-      </c>
-    </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.45">
+        <v>1.4087028121813343E-3</v>
+      </c>
+    </row>
+    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>49</v>
       </c>
@@ -8492,13 +8484,13 @@
         <v>0.77408059379966554</v>
       </c>
       <c r="J175" s="9">
-        <v>18218.831728589495</v>
+        <v>1.8218831728589496E-2</v>
       </c>
       <c r="K175" s="9">
-        <v>2023.7070509199848</v>
-      </c>
-    </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.45">
+        <v>2.0237070509199848E-3</v>
+      </c>
+    </row>
+    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>49</v>
       </c>
@@ -8519,7 +8511,7 @@
       <c r="J176" s="9"/>
       <c r="K176" s="9"/>
     </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>48</v>
       </c>
@@ -8542,13 +8534,13 @@
         <v>0.54390703007304841</v>
       </c>
       <c r="J177" s="9">
-        <v>28288.133640552987</v>
+        <v>2.8288133640552986E-2</v>
       </c>
       <c r="K177" s="9">
-        <v>2311.8002076404055</v>
-      </c>
-    </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.45">
+        <v>2.3118002076404054E-3</v>
+      </c>
+    </row>
+    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>48</v>
       </c>
@@ -8571,13 +8563,13 @@
         <v>0.23340536361962214</v>
       </c>
       <c r="J178" s="9">
-        <v>25377.688818726892</v>
+        <v>2.5377688818726891E-2</v>
       </c>
       <c r="K178" s="9">
-        <v>1158.8064263279987</v>
-      </c>
-    </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.45">
+        <v>1.1588064263279986E-3</v>
+      </c>
+    </row>
+    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>48</v>
       </c>
@@ -8600,13 +8592,13 @@
         <v>0.49587875813870441</v>
       </c>
       <c r="J179" s="9">
-        <v>22486.477737348403</v>
+        <v>2.2486477737348402E-2</v>
       </c>
       <c r="K179" s="9">
-        <v>1251.3343134388192</v>
-      </c>
-    </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.45">
+        <v>1.2513343134388192E-3</v>
+      </c>
+    </row>
+    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>48</v>
       </c>
@@ -8629,13 +8621,13 @@
         <v>0.27245861382994485</v>
       </c>
       <c r="J180" s="9">
-        <v>17839.524599970267</v>
+        <v>1.7839524599970267E-2</v>
       </c>
       <c r="K180" s="9">
-        <v>1098.3968963395537</v>
-      </c>
-    </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.45">
+        <v>1.0983968963395538E-3</v>
+      </c>
+    </row>
+    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>48</v>
       </c>
@@ -8655,1083 +8647,1083 @@
       <c r="I181" s="10"/>
       <c r="K181" s="10"/>
     </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B182" s="8"/>
       <c r="C182" s="4"/>
     </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B183" s="8"/>
       <c r="C183" s="4"/>
     </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B184" s="8"/>
       <c r="C184" s="4"/>
     </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B185" s="8"/>
       <c r="C185" s="4"/>
     </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B186" s="8"/>
       <c r="C186" s="4"/>
     </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B187" s="8"/>
       <c r="C187" s="4"/>
     </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B188" s="8"/>
       <c r="C188" s="4"/>
     </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B189" s="8"/>
       <c r="C189" s="4"/>
     </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B190" s="8"/>
       <c r="C190" s="4"/>
     </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B191" s="8"/>
       <c r="C191" s="4"/>
     </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B192" s="8"/>
       <c r="C192" s="4"/>
     </row>
-    <row r="193" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="193" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B193" s="8"/>
       <c r="C193" s="4"/>
     </row>
-    <row r="194" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="194" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B194" s="8"/>
       <c r="C194" s="4"/>
     </row>
-    <row r="195" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="195" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B195" s="8"/>
       <c r="C195" s="4"/>
     </row>
-    <row r="196" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="196" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B196" s="8"/>
       <c r="C196" s="4"/>
     </row>
-    <row r="197" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="197" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B197" s="8"/>
       <c r="C197" s="4"/>
     </row>
-    <row r="198" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="198" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B198" s="8"/>
       <c r="C198" s="4"/>
     </row>
-    <row r="199" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="199" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B199" s="8"/>
       <c r="C199" s="4"/>
     </row>
-    <row r="200" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="200" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B200" s="8"/>
       <c r="C200" s="4"/>
     </row>
-    <row r="201" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="201" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B201" s="8"/>
       <c r="C201" s="4"/>
     </row>
-    <row r="202" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="202" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B202" s="8"/>
       <c r="C202" s="4"/>
     </row>
-    <row r="203" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="203" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B203" s="8"/>
       <c r="C203" s="4"/>
     </row>
-    <row r="204" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="204" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B204" s="8"/>
       <c r="C204" s="4"/>
     </row>
-    <row r="205" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="205" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B205" s="8"/>
       <c r="C205" s="4"/>
     </row>
-    <row r="206" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="206" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B206" s="8"/>
       <c r="C206" s="4"/>
     </row>
-    <row r="207" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="207" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B207" s="8"/>
       <c r="C207" s="4"/>
     </row>
-    <row r="208" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="208" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B208" s="8"/>
       <c r="C208" s="4"/>
     </row>
-    <row r="209" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="209" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B209" s="8"/>
       <c r="C209" s="4"/>
     </row>
-    <row r="210" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="210" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B210" s="8"/>
       <c r="C210" s="4"/>
     </row>
-    <row r="211" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="211" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B211" s="8"/>
       <c r="C211" s="4"/>
     </row>
-    <row r="212" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="212" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B212" s="8"/>
       <c r="C212" s="4"/>
     </row>
-    <row r="213" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="213" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B213" s="8"/>
       <c r="C213" s="4"/>
     </row>
-    <row r="214" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="214" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B214" s="8"/>
       <c r="C214" s="4"/>
     </row>
-    <row r="215" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="215" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B215" s="8"/>
       <c r="C215" s="4"/>
     </row>
-    <row r="216" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="216" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B216" s="8"/>
       <c r="C216" s="4"/>
     </row>
-    <row r="217" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="217" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B217" s="8"/>
       <c r="C217" s="4"/>
     </row>
-    <row r="218" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="218" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B218" s="8"/>
       <c r="C218" s="4"/>
     </row>
-    <row r="219" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="219" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B219" s="8"/>
       <c r="C219" s="4"/>
     </row>
-    <row r="220" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="220" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B220" s="8"/>
       <c r="C220" s="4"/>
     </row>
-    <row r="221" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="221" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B221" s="8"/>
       <c r="C221" s="4"/>
     </row>
-    <row r="222" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="222" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B222" s="8"/>
       <c r="C222" s="4"/>
     </row>
-    <row r="223" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="223" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B223" s="8"/>
       <c r="C223" s="4"/>
     </row>
-    <row r="224" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="224" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B224" s="8"/>
       <c r="C224" s="4"/>
     </row>
-    <row r="225" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="225" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B225" s="8"/>
       <c r="C225" s="4"/>
     </row>
-    <row r="226" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="226" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B226" s="8"/>
       <c r="C226" s="4"/>
     </row>
-    <row r="227" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="227" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B227" s="8"/>
       <c r="C227" s="4"/>
     </row>
-    <row r="228" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="228" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B228" s="8"/>
       <c r="C228" s="4"/>
     </row>
-    <row r="229" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="229" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B229" s="8"/>
       <c r="C229" s="4"/>
     </row>
-    <row r="230" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="230" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B230" s="8"/>
       <c r="C230" s="4"/>
     </row>
-    <row r="231" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="231" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B231" s="8"/>
       <c r="C231" s="4"/>
     </row>
-    <row r="232" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="232" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B232" s="8"/>
       <c r="C232" s="4"/>
     </row>
-    <row r="233" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="233" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B233" s="8"/>
       <c r="C233" s="4"/>
     </row>
-    <row r="234" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="234" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B234" s="8"/>
       <c r="C234" s="4"/>
     </row>
-    <row r="235" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="235" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B235" s="8"/>
       <c r="C235" s="4"/>
     </row>
-    <row r="236" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="236" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B236" s="8"/>
       <c r="C236" s="4"/>
     </row>
-    <row r="237" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="237" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B237" s="8"/>
       <c r="C237" s="4"/>
     </row>
-    <row r="238" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="238" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B238" s="8"/>
       <c r="C238" s="4"/>
     </row>
-    <row r="239" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="239" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B239" s="8"/>
       <c r="C239" s="4"/>
     </row>
-    <row r="240" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="240" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B240" s="8"/>
       <c r="C240" s="4"/>
     </row>
-    <row r="241" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="241" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B241" s="8"/>
       <c r="C241" s="4"/>
     </row>
-    <row r="242" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="242" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B242" s="8"/>
       <c r="C242" s="4"/>
     </row>
-    <row r="243" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="243" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B243" s="8"/>
       <c r="C243" s="4"/>
     </row>
-    <row r="244" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="244" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B244" s="8"/>
       <c r="C244" s="4"/>
     </row>
-    <row r="245" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="245" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B245" s="8"/>
       <c r="C245" s="4"/>
     </row>
-    <row r="246" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="246" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B246" s="8"/>
       <c r="C246" s="4"/>
     </row>
-    <row r="247" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="247" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B247" s="8"/>
       <c r="C247" s="4"/>
     </row>
-    <row r="248" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="248" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B248" s="8"/>
       <c r="C248" s="4"/>
     </row>
-    <row r="249" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="249" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B249" s="8"/>
       <c r="C249" s="4"/>
     </row>
-    <row r="250" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="250" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B250" s="8"/>
       <c r="C250" s="4"/>
     </row>
-    <row r="251" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="251" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B251" s="8"/>
       <c r="C251" s="4"/>
     </row>
-    <row r="252" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="252" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B252" s="8"/>
       <c r="C252" s="4"/>
     </row>
-    <row r="253" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="253" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B253" s="8"/>
       <c r="C253" s="4"/>
     </row>
-    <row r="254" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="254" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B254" s="8"/>
       <c r="C254" s="4"/>
     </row>
-    <row r="255" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="255" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B255" s="8"/>
       <c r="C255" s="4"/>
     </row>
-    <row r="256" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="256" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B256" s="8"/>
       <c r="C256" s="4"/>
     </row>
-    <row r="257" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="257" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B257" s="8"/>
       <c r="C257" s="4"/>
     </row>
-    <row r="258" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="258" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B258" s="8"/>
       <c r="C258" s="4"/>
     </row>
-    <row r="259" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="259" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B259" s="8"/>
       <c r="C259" s="4"/>
     </row>
-    <row r="260" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="260" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B260" s="8"/>
       <c r="C260" s="4"/>
     </row>
-    <row r="261" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="261" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B261" s="8"/>
       <c r="C261" s="4"/>
     </row>
-    <row r="262" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="262" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B262" s="8"/>
       <c r="C262" s="4"/>
     </row>
-    <row r="263" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="263" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B263" s="8"/>
       <c r="C263" s="4"/>
     </row>
-    <row r="264" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="264" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B264" s="8"/>
       <c r="C264" s="4"/>
     </row>
-    <row r="265" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="265" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B265" s="8"/>
       <c r="C265" s="4"/>
     </row>
-    <row r="266" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="266" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B266" s="8"/>
       <c r="C266" s="4"/>
     </row>
-    <row r="267" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="267" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B267" s="8"/>
       <c r="C267" s="4"/>
     </row>
-    <row r="268" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="268" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B268" s="8"/>
       <c r="C268" s="4"/>
     </row>
-    <row r="269" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="269" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B269" s="8"/>
       <c r="C269" s="4"/>
     </row>
-    <row r="270" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="270" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B270" s="8"/>
       <c r="C270" s="4"/>
     </row>
-    <row r="271" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="271" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B271" s="8"/>
       <c r="C271" s="4"/>
     </row>
-    <row r="272" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="272" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B272" s="8"/>
       <c r="C272" s="4"/>
     </row>
-    <row r="273" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="273" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B273" s="8"/>
       <c r="C273" s="4"/>
     </row>
-    <row r="274" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="274" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B274" s="8"/>
       <c r="C274" s="4"/>
     </row>
-    <row r="275" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="275" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B275" s="8"/>
       <c r="C275" s="4"/>
     </row>
-    <row r="276" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="276" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B276" s="8"/>
       <c r="C276" s="4"/>
     </row>
-    <row r="277" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="277" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B277" s="8"/>
       <c r="C277" s="4"/>
     </row>
-    <row r="278" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="278" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B278" s="8"/>
       <c r="C278" s="4"/>
     </row>
-    <row r="279" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="279" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B279" s="8"/>
       <c r="C279" s="4"/>
     </row>
-    <row r="280" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="280" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B280" s="8"/>
       <c r="C280" s="4"/>
     </row>
-    <row r="281" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="281" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B281" s="8"/>
       <c r="C281" s="4"/>
     </row>
-    <row r="282" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="282" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B282" s="8"/>
       <c r="C282" s="4"/>
     </row>
-    <row r="283" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="283" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B283" s="8"/>
       <c r="C283" s="4"/>
     </row>
-    <row r="284" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="284" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B284" s="8"/>
       <c r="C284" s="4"/>
     </row>
-    <row r="285" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="285" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B285" s="8"/>
       <c r="C285" s="4"/>
     </row>
-    <row r="286" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="286" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B286" s="8"/>
       <c r="C286" s="4"/>
     </row>
-    <row r="287" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="287" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B287" s="8"/>
       <c r="C287" s="4"/>
     </row>
-    <row r="288" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="288" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B288" s="8"/>
       <c r="C288" s="4"/>
     </row>
-    <row r="289" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="289" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B289" s="8"/>
       <c r="C289" s="4"/>
     </row>
-    <row r="290" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="290" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B290" s="8"/>
       <c r="C290" s="4"/>
     </row>
-    <row r="291" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="291" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B291" s="8"/>
       <c r="C291" s="4"/>
     </row>
-    <row r="292" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="292" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B292" s="8"/>
       <c r="C292" s="4"/>
     </row>
-    <row r="293" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="293" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B293" s="8"/>
       <c r="C293" s="4"/>
     </row>
-    <row r="294" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="294" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B294" s="8"/>
       <c r="C294" s="4"/>
     </row>
-    <row r="295" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="295" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B295" s="8"/>
       <c r="C295" s="4"/>
     </row>
-    <row r="296" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="296" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B296" s="8"/>
       <c r="C296" s="4"/>
     </row>
-    <row r="297" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="297" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B297" s="8"/>
       <c r="C297" s="4"/>
     </row>
-    <row r="298" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="298" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B298" s="8"/>
       <c r="C298" s="4"/>
     </row>
-    <row r="299" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="299" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B299" s="8"/>
       <c r="C299" s="4"/>
     </row>
-    <row r="300" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="300" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B300" s="8"/>
       <c r="C300" s="4"/>
     </row>
-    <row r="301" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="301" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B301" s="8"/>
       <c r="C301" s="4"/>
     </row>
-    <row r="302" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="302" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B302" s="8"/>
       <c r="C302" s="4"/>
     </row>
-    <row r="303" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="303" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B303" s="8"/>
       <c r="C303" s="4"/>
     </row>
-    <row r="304" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="304" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B304" s="8"/>
       <c r="C304" s="4"/>
     </row>
-    <row r="305" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="305" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B305" s="8"/>
       <c r="C305" s="4"/>
     </row>
-    <row r="306" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="306" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B306" s="8"/>
       <c r="C306" s="4"/>
     </row>
-    <row r="307" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="307" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B307" s="8"/>
       <c r="C307" s="4"/>
     </row>
-    <row r="308" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="308" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B308" s="8"/>
       <c r="C308" s="4"/>
     </row>
-    <row r="309" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="309" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B309" s="8"/>
       <c r="C309" s="4"/>
     </row>
-    <row r="310" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="310" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B310" s="8"/>
       <c r="C310" s="4"/>
     </row>
-    <row r="311" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="311" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B311" s="8"/>
       <c r="C311" s="4"/>
     </row>
-    <row r="312" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="312" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B312" s="8"/>
       <c r="C312" s="4"/>
     </row>
-    <row r="313" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="313" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B313" s="8"/>
       <c r="C313" s="4"/>
     </row>
-    <row r="314" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="314" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B314" s="8"/>
       <c r="C314" s="4"/>
     </row>
-    <row r="315" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="315" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B315" s="8"/>
       <c r="C315" s="4"/>
     </row>
-    <row r="316" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="316" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B316" s="8"/>
       <c r="C316" s="4"/>
     </row>
-    <row r="317" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="317" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B317" s="8"/>
       <c r="C317" s="4"/>
     </row>
-    <row r="318" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="318" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B318" s="8"/>
       <c r="C318" s="4"/>
     </row>
-    <row r="319" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="319" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B319" s="8"/>
       <c r="C319" s="4"/>
     </row>
-    <row r="320" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="320" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B320" s="8"/>
       <c r="C320" s="4"/>
     </row>
-    <row r="321" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="321" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B321" s="8"/>
       <c r="C321" s="4"/>
     </row>
-    <row r="322" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="322" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B322" s="8"/>
       <c r="C322" s="4"/>
     </row>
-    <row r="323" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="323" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B323" s="8"/>
       <c r="C323" s="4"/>
     </row>
-    <row r="324" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="324" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B324" s="8"/>
       <c r="C324" s="4"/>
     </row>
-    <row r="325" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="325" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B325" s="8"/>
       <c r="C325" s="4"/>
     </row>
-    <row r="326" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="326" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B326" s="8"/>
       <c r="C326" s="4"/>
     </row>
-    <row r="327" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="327" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B327" s="8"/>
       <c r="C327" s="4"/>
     </row>
-    <row r="328" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="328" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B328" s="8"/>
       <c r="C328" s="4"/>
     </row>
-    <row r="329" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="329" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B329" s="8"/>
       <c r="C329" s="4"/>
     </row>
-    <row r="330" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="330" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B330" s="8"/>
       <c r="C330" s="4"/>
     </row>
-    <row r="331" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="331" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B331" s="8"/>
       <c r="C331" s="4"/>
     </row>
-    <row r="332" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="332" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B332" s="8"/>
       <c r="C332" s="4"/>
     </row>
-    <row r="333" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="333" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B333" s="8"/>
       <c r="C333" s="4"/>
     </row>
-    <row r="334" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="334" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B334" s="8"/>
       <c r="C334" s="4"/>
     </row>
-    <row r="335" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="335" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B335" s="8"/>
       <c r="C335" s="4"/>
     </row>
-    <row r="336" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="336" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B336" s="8"/>
       <c r="C336" s="4"/>
     </row>
-    <row r="337" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="337" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B337" s="8"/>
       <c r="C337" s="4"/>
     </row>
-    <row r="338" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="338" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B338" s="8"/>
       <c r="C338" s="4"/>
     </row>
-    <row r="339" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="339" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B339" s="8"/>
       <c r="C339" s="4"/>
     </row>
-    <row r="340" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="340" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B340" s="8"/>
       <c r="C340" s="4"/>
     </row>
-    <row r="341" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="341" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B341" s="8"/>
       <c r="C341" s="4"/>
     </row>
-    <row r="342" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="342" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B342" s="8"/>
       <c r="C342" s="4"/>
     </row>
-    <row r="343" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="343" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B343" s="8"/>
       <c r="C343" s="4"/>
     </row>
-    <row r="344" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="344" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B344" s="8"/>
       <c r="C344" s="4"/>
     </row>
-    <row r="345" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="345" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B345" s="8"/>
       <c r="C345" s="4"/>
     </row>
-    <row r="346" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="346" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B346" s="8"/>
       <c r="C346" s="4"/>
     </row>
-    <row r="347" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="347" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B347" s="8"/>
       <c r="C347" s="4"/>
     </row>
-    <row r="348" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="348" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B348" s="8"/>
       <c r="C348" s="4"/>
     </row>
-    <row r="349" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="349" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B349" s="8"/>
       <c r="C349" s="4"/>
     </row>
-    <row r="350" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="350" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B350" s="8"/>
       <c r="C350" s="4"/>
     </row>
-    <row r="351" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="351" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B351" s="8"/>
       <c r="C351" s="4"/>
     </row>
-    <row r="352" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="352" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B352" s="8"/>
       <c r="C352" s="4"/>
     </row>
-    <row r="353" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="353" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B353" s="8"/>
       <c r="C353" s="4"/>
     </row>
-    <row r="354" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="354" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B354" s="8"/>
       <c r="C354" s="4"/>
     </row>
-    <row r="355" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="355" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B355" s="8"/>
       <c r="C355" s="4"/>
     </row>
-    <row r="356" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="356" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B356" s="8"/>
       <c r="C356" s="4"/>
     </row>
-    <row r="357" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="357" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B357" s="8"/>
       <c r="C357" s="4"/>
     </row>
-    <row r="358" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="358" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B358" s="8"/>
       <c r="C358" s="4"/>
     </row>
-    <row r="359" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="359" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B359" s="8"/>
       <c r="C359" s="4"/>
     </row>
-    <row r="360" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="360" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B360" s="8"/>
       <c r="C360" s="4"/>
     </row>
-    <row r="361" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="361" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C361" s="4"/>
     </row>
-    <row r="362" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="362" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C362" s="4"/>
     </row>
-    <row r="363" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="363" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C363" s="4"/>
     </row>
-    <row r="364" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="364" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C364" s="4"/>
     </row>
-    <row r="365" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="365" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C365" s="4"/>
     </row>
-    <row r="366" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="366" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C366" s="4"/>
     </row>
-    <row r="367" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="367" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C367" s="4"/>
     </row>
-    <row r="368" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="368" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C368" s="4"/>
     </row>
-    <row r="369" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="369" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C369" s="4"/>
     </row>
-    <row r="370" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="370" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C370" s="4"/>
     </row>
-    <row r="371" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="371" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C371" s="4"/>
     </row>
-    <row r="372" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="372" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C372" s="4"/>
     </row>
-    <row r="373" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="373" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C373" s="4"/>
     </row>
-    <row r="374" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="374" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C374" s="4"/>
     </row>
-    <row r="375" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="375" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C375" s="4"/>
     </row>
-    <row r="376" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="376" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C376" s="4"/>
     </row>
-    <row r="377" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="377" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C377" s="4"/>
     </row>
-    <row r="378" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="378" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C378" s="4"/>
     </row>
-    <row r="379" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="379" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C379" s="4"/>
     </row>
-    <row r="380" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="380" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C380" s="4"/>
     </row>
-    <row r="381" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="381" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C381" s="4"/>
     </row>
-    <row r="382" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="382" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C382" s="4"/>
     </row>
-    <row r="383" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="383" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C383" s="4"/>
     </row>
-    <row r="384" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="384" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C384" s="4"/>
     </row>
-    <row r="385" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="385" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C385" s="4"/>
     </row>
-    <row r="386" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="386" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C386" s="4"/>
     </row>
-    <row r="387" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="387" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C387" s="4"/>
     </row>
-    <row r="388" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="388" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C388" s="4"/>
     </row>
-    <row r="389" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="389" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C389" s="4"/>
     </row>
-    <row r="390" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="390" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C390" s="4"/>
     </row>
-    <row r="391" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="391" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C391" s="4"/>
     </row>
-    <row r="392" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="392" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C392" s="4"/>
     </row>
-    <row r="393" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="393" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C393" s="4"/>
     </row>
-    <row r="394" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="394" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C394" s="4"/>
     </row>
-    <row r="395" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="395" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C395" s="4"/>
     </row>
-    <row r="396" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="396" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C396" s="4"/>
     </row>
-    <row r="397" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="397" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C397" s="4"/>
     </row>
-    <row r="398" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="398" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C398" s="4"/>
     </row>
-    <row r="399" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="399" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C399" s="4"/>
     </row>
-    <row r="400" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="400" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C400" s="4"/>
     </row>
-    <row r="401" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="401" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C401" s="4"/>
     </row>
-    <row r="402" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="402" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C402" s="4"/>
     </row>
-    <row r="403" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="403" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C403" s="4"/>
     </row>
-    <row r="404" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="404" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C404" s="4"/>
     </row>
-    <row r="405" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="405" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C405" s="4"/>
     </row>
-    <row r="406" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="406" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C406" s="4"/>
     </row>
-    <row r="407" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="407" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C407" s="4"/>
     </row>
-    <row r="408" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="408" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C408" s="4"/>
     </row>
-    <row r="409" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="409" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C409" s="4"/>
     </row>
-    <row r="410" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="410" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C410" s="4"/>
     </row>
-    <row r="411" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="411" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C411" s="4"/>
     </row>
-    <row r="412" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="412" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C412" s="4"/>
     </row>
-    <row r="413" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="413" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C413" s="4"/>
     </row>
-    <row r="414" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="414" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C414" s="4"/>
     </row>
-    <row r="415" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="415" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C415" s="4"/>
     </row>
-    <row r="416" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="416" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C416" s="4"/>
     </row>
-    <row r="417" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="417" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C417" s="4"/>
     </row>
-    <row r="418" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="418" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C418" s="4"/>
     </row>
-    <row r="419" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="419" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C419" s="4"/>
     </row>
-    <row r="420" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="420" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C420" s="4"/>
     </row>
-    <row r="421" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="421" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C421" s="4"/>
     </row>
-    <row r="422" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="422" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C422" s="4"/>
     </row>
-    <row r="423" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="423" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C423" s="4"/>
     </row>
-    <row r="424" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="424" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C424" s="4"/>
     </row>
-    <row r="425" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="425" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C425" s="4"/>
     </row>
-    <row r="426" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="426" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C426" s="4"/>
     </row>
-    <row r="427" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="427" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C427" s="4"/>
     </row>
-    <row r="428" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="428" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C428" s="4"/>
     </row>
-    <row r="429" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="429" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C429" s="4"/>
     </row>
-    <row r="430" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="430" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C430" s="4"/>
     </row>
-    <row r="431" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="431" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C431" s="4"/>
     </row>
-    <row r="432" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="432" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C432" s="4"/>
     </row>
-    <row r="433" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="433" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C433" s="4"/>
     </row>
-    <row r="434" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="434" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C434" s="4"/>
     </row>
-    <row r="435" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="435" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C435" s="4"/>
     </row>
-    <row r="436" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="436" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C436" s="4"/>
     </row>
-    <row r="437" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="437" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C437" s="4"/>
     </row>
-    <row r="438" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="438" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C438" s="4"/>
     </row>
-    <row r="439" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="439" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C439" s="4"/>
     </row>
-    <row r="440" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="440" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C440" s="4"/>
     </row>
-    <row r="441" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="441" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C441" s="4"/>
     </row>
-    <row r="442" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="442" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C442" s="4"/>
     </row>
-    <row r="443" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="443" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C443" s="4"/>
     </row>
-    <row r="444" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="444" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C444" s="4"/>
     </row>
-    <row r="445" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="445" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C445" s="4"/>
     </row>
-    <row r="446" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="446" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C446" s="4"/>
     </row>
-    <row r="447" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="447" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C447" s="4"/>
     </row>
-    <row r="448" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="448" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C448" s="4"/>
     </row>
-    <row r="449" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="449" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C449" s="4"/>
     </row>
-    <row r="450" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="450" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C450" s="4"/>
     </row>
-    <row r="451" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="451" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C451" s="4"/>
     </row>
-    <row r="452" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="452" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C452" s="4"/>
     </row>
-    <row r="453" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="453" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C453" s="4"/>
     </row>
-    <row r="454" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="454" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C454" s="4"/>
     </row>
-    <row r="455" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="455" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C455" s="4"/>
     </row>
-    <row r="456" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="456" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C456" s="4"/>
     </row>
-    <row r="457" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="457" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C457" s="4"/>
     </row>
-    <row r="458" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="458" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C458" s="4"/>
     </row>
-    <row r="459" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="459" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C459" s="4"/>
     </row>
-    <row r="460" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="460" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C460" s="4"/>
     </row>
-    <row r="461" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="461" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C461" s="4"/>
     </row>
-    <row r="462" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="462" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C462" s="4"/>
     </row>
-    <row r="463" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="463" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C463" s="4"/>
     </row>
-    <row r="464" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="464" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C464" s="4"/>
     </row>
-    <row r="465" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="465" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C465" s="4"/>
     </row>
-    <row r="466" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="466" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C466" s="4"/>
     </row>
-    <row r="467" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="467" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C467" s="4"/>
     </row>
-    <row r="468" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="468" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C468" s="4"/>
     </row>
-    <row r="469" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="469" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C469" s="4"/>
     </row>
-    <row r="470" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="470" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C470" s="4"/>
     </row>
-    <row r="471" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="471" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C471" s="4"/>
     </row>
-    <row r="472" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="472" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C472" s="4"/>
     </row>
-    <row r="473" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="473" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C473" s="4"/>
     </row>
-    <row r="474" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="474" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C474" s="4"/>
     </row>
-    <row r="475" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="475" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C475" s="4"/>
     </row>
-    <row r="476" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="476" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C476" s="4"/>
     </row>
-    <row r="477" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="477" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C477" s="4"/>
     </row>
-    <row r="478" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="478" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C478" s="4"/>
     </row>
-    <row r="479" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="479" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C479" s="4"/>
     </row>
-    <row r="480" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="480" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C480" s="4"/>
     </row>
-    <row r="481" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="481" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C481" s="4"/>
     </row>
   </sheetData>
